--- a/JavaSelWorks/src/main/resources/TryOne.xlsx
+++ b/JavaSelWorks/src/main/resources/TryOne.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="searchValues1Yes" sheetId="1" r:id="rId1"/>
@@ -445,9 +445,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -459,6 +461,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/JavaSelWorks/src/main/resources/TryOne.xlsx
+++ b/JavaSelWorks/src/main/resources/TryOne.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="searchValues1Yes" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -447,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
